--- a/Opti/Datos/Costos_almacenamiento.xlsx
+++ b/Opti/Datos/Costos_almacenamiento.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/gaalfaro_uc_cl/Documents/Proyecto OPTI/Datos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\comma\Avanzada\Apuntes\Opti\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="11_7E4E55BF84DCCEE3ED7FF6F99031F45BFA722949" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69F8FAD4-0A24-4F1F-A66E-37CA972C531C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3B129DC-B0D8-4C03-834B-3555B2B0FD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{42466E8B-ACFD-48A9-B6A9-4FBC164AD778}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,109 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+  <si>
+    <t>costo mensual</t>
+  </si>
+  <si>
+    <t>Carne</t>
+  </si>
+  <si>
+    <t>Pavo</t>
+  </si>
+  <si>
+    <t>Cerdo</t>
+  </si>
+  <si>
+    <t>Pollo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Huevo</t>
+  </si>
+  <si>
+    <t>Lechuga</t>
+  </si>
+  <si>
+    <t>Tomate</t>
+  </si>
+  <si>
+    <t>Brócoli</t>
+  </si>
+  <si>
+    <t>Coliflor</t>
+  </si>
+  <si>
+    <t>Apio</t>
+  </si>
+  <si>
+    <t>Manzana</t>
+  </si>
+  <si>
+    <t>Pera</t>
+  </si>
+  <si>
+    <t>Plátano</t>
+  </si>
+  <si>
+    <t>Durazno</t>
+  </si>
+  <si>
+    <t>Leche</t>
+  </si>
+  <si>
+    <t>Yogurt</t>
+  </si>
+  <si>
+    <t>Flan</t>
+  </si>
+  <si>
+    <t>Arroz con leche</t>
+  </si>
+  <si>
+    <t>Mousse</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Atún</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Porotos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Puré</t>
+  </si>
+  <si>
+    <t>Arroz</t>
+  </si>
+  <si>
+    <t>Fideos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Papas</t>
+  </si>
+  <si>
+    <t>Lentejas</t>
+  </si>
+  <si>
+    <t>Zanahoria</t>
+  </si>
+  <si>
+    <t>Naranja</t>
+  </si>
+  <si>
+    <t>Piña</t>
+  </si>
+  <si>
+    <t>Pan</t>
+  </si>
+  <si>
+    <t>Cereal</t>
+  </si>
+  <si>
+    <t>Galletones</t>
+  </si>
+  <si>
+    <t>Barritas</t>
+  </si>
   <si>
     <t>Region 1</t>
   </si>
@@ -81,9 +183,6 @@
   </si>
   <si>
     <t>Region 15</t>
-  </si>
-  <si>
-    <t>Pesos</t>
   </si>
   <si>
     <t>Region 16</t>
@@ -93,7 +192,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,13 +200,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -143,19 +266,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -167,8 +291,12 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -184,13 +312,13 @@
         <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="145F82"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E87331"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="186C24"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
         <a:srgbClr val="0F9ED5"/>
@@ -210,7 +338,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -476,156 +604,1791 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58DF2B5F-A64A-4CA5-B838-166977BCC274}">
+  <dimension ref="A1:AH17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AH17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="AA1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>3571125</v>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="5">
+        <v>114398.17345851967</v>
+      </c>
+      <c r="C2" s="5">
+        <v>135397.02087976012</v>
+      </c>
+      <c r="D2" s="5">
+        <v>150970.59757416756</v>
+      </c>
+      <c r="E2" s="5">
+        <v>115092.38339619874</v>
+      </c>
+      <c r="F2" s="6">
+        <v>83042.700669361249</v>
+      </c>
+      <c r="G2" s="5">
+        <v>112636.56558198143</v>
+      </c>
+      <c r="H2" s="6">
+        <v>80844.755366880156</v>
+      </c>
+      <c r="I2" s="6">
+        <v>83229.73833309584</v>
+      </c>
+      <c r="J2" s="6">
+        <v>86547.887589187332</v>
+      </c>
+      <c r="K2" s="6">
+        <v>86789.520030444444</v>
+      </c>
+      <c r="L2" s="6">
+        <v>83401.610780851945</v>
+      </c>
+      <c r="M2" s="6">
+        <v>81969.003378084832</v>
+      </c>
+      <c r="N2" s="6">
+        <v>90087.448998564636</v>
+      </c>
+      <c r="O2" s="5">
+        <v>109713.25957273747</v>
+      </c>
+      <c r="P2" s="5">
+        <v>145739.94639633707</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>116273.14220638409</v>
+      </c>
+      <c r="R2" s="5">
+        <v>109743.35537928426</v>
+      </c>
+      <c r="S2" s="5">
+        <v>116317.28272265272</v>
+      </c>
+      <c r="T2" s="5">
+        <v>151122.07980045304</v>
+      </c>
+      <c r="U2" s="5">
+        <v>115318.1019452996</v>
+      </c>
+      <c r="V2" s="5">
+        <v>135712.02365494976</v>
+      </c>
+      <c r="W2" s="6">
+        <v>78523.466307774099</v>
+      </c>
+      <c r="X2" s="5">
+        <v>109611.93702402998</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>77345.634533445467</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>129773.11782971835</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>127274.16269278401</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>120713.27686558581</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>141685.03806093417</v>
+      </c>
+      <c r="AD2" s="5">
+        <v>150008.53495822215</v>
+      </c>
+      <c r="AE2" s="6">
+        <v>82285.450884835795</v>
+      </c>
+      <c r="AF2" s="6">
+        <v>78103.895332369473</v>
+      </c>
+      <c r="AG2" s="6">
+        <v>91954.792592714861</v>
+      </c>
+      <c r="AH2" s="6">
+        <v>79499.095202389668</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>3337500</v>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="5">
+        <v>123907.4364490782</v>
+      </c>
+      <c r="C3" s="5">
+        <v>115417.63007552399</v>
+      </c>
+      <c r="D3" s="5">
+        <v>107173.07569157655</v>
+      </c>
+      <c r="E3" s="5">
+        <v>118538.46164327007</v>
+      </c>
+      <c r="F3" s="6">
+        <v>85056.91877511637</v>
+      </c>
+      <c r="G3" s="5">
+        <v>125151.06841304249</v>
+      </c>
+      <c r="H3" s="6">
+        <v>79139.251355933768</v>
+      </c>
+      <c r="I3" s="6">
+        <v>83899.667925023168</v>
+      </c>
+      <c r="J3" s="6">
+        <v>73724.825063464246</v>
+      </c>
+      <c r="K3" s="6">
+        <v>77464.49748484818</v>
+      </c>
+      <c r="L3" s="6">
+        <v>77319.84112858653</v>
+      </c>
+      <c r="M3" s="6">
+        <v>79840.121589088812</v>
+      </c>
+      <c r="N3" s="6">
+        <v>71942.088278549534</v>
+      </c>
+      <c r="O3" s="5">
+        <v>129586.04189176483</v>
+      </c>
+      <c r="P3" s="5">
+        <v>97534.672500030647</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>140416.98288277362</v>
+      </c>
+      <c r="R3" s="5">
+        <v>123791.963637305</v>
+      </c>
+      <c r="S3" s="5">
+        <v>107704.45500239122</v>
+      </c>
+      <c r="T3" s="5">
+        <v>134661.73619333486</v>
+      </c>
+      <c r="U3" s="5">
+        <v>111040.90394433324</v>
+      </c>
+      <c r="V3" s="5">
+        <v>98038.460962014549</v>
+      </c>
+      <c r="W3" s="6">
+        <v>86916.058565098865</v>
+      </c>
+      <c r="X3" s="5">
+        <v>115459.52729041514</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>72685.744194542538</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>143133.14866766857</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>119810.70633935518</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>114260.85819121207</v>
+      </c>
+      <c r="AC3" s="5">
+        <v>120495.36814367406</v>
+      </c>
+      <c r="AD3" s="5">
+        <v>103877.50208123564</v>
+      </c>
+      <c r="AE3" s="6">
+        <v>73369.296413215547</v>
+      </c>
+      <c r="AF3" s="6">
+        <v>76689.261660093849</v>
+      </c>
+      <c r="AG3" s="6">
+        <v>74959.49762535945</v>
+      </c>
+      <c r="AH3" s="6">
+        <v>74492.929941078924</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3471000</v>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="5">
+        <v>128963.82764214942</v>
+      </c>
+      <c r="C4" s="5">
+        <v>145183.08051673273</v>
+      </c>
+      <c r="D4" s="5">
+        <v>110039.63534770122</v>
+      </c>
+      <c r="E4" s="5">
+        <v>136613.45862339498</v>
+      </c>
+      <c r="F4" s="6">
+        <v>87690.008749524946</v>
+      </c>
+      <c r="G4" s="5">
+        <v>113193.14821454562</v>
+      </c>
+      <c r="H4" s="6">
+        <v>74076.906556840957</v>
+      </c>
+      <c r="I4" s="6">
+        <v>81533.675949411816</v>
+      </c>
+      <c r="J4" s="6">
+        <v>72852.437052028734</v>
+      </c>
+      <c r="K4" s="6">
+        <v>78001.206373896348</v>
+      </c>
+      <c r="L4" s="6">
+        <v>87832.946822331607</v>
+      </c>
+      <c r="M4" s="6">
+        <v>88155.806944824944</v>
+      </c>
+      <c r="N4" s="6">
+        <v>83307.907272711192</v>
+      </c>
+      <c r="O4" s="5">
+        <v>108887.05079643441</v>
+      </c>
+      <c r="P4" s="5">
+        <v>117114.01241777396</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>112590.8968273972</v>
+      </c>
+      <c r="R4" s="5">
+        <v>112821.41373765057</v>
+      </c>
+      <c r="S4" s="5">
+        <v>109043.84382998513</v>
+      </c>
+      <c r="T4" s="5">
+        <v>106114.61768663047</v>
+      </c>
+      <c r="U4" s="5">
+        <v>112400.87613110726</v>
+      </c>
+      <c r="V4" s="5">
+        <v>120170.95738978249</v>
+      </c>
+      <c r="W4" s="6">
+        <v>73380.208397776369</v>
+      </c>
+      <c r="X4" s="5">
+        <v>147748.87909887714</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>77584.386958788833</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>143828.01489564881</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>133877.36826971205</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>137498.14514382678</v>
+      </c>
+      <c r="AC4" s="5">
+        <v>131399.83066671874</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>112510.94276393094</v>
+      </c>
+      <c r="AE4" s="6">
+        <v>85780.835888960544</v>
+      </c>
+      <c r="AF4" s="6">
+        <v>87711.999222264436</v>
+      </c>
+      <c r="AG4" s="6">
+        <v>79094.732609214378</v>
+      </c>
+      <c r="AH4" s="6">
+        <v>73996.941201424648</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>3738000.0000000005</v>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="5">
+        <v>112944.29202674305</v>
+      </c>
+      <c r="C5" s="5">
+        <v>141189.84446707027</v>
+      </c>
+      <c r="D5" s="5">
+        <v>149092.53231283138</v>
+      </c>
+      <c r="E5" s="5">
+        <v>111825.71885705116</v>
+      </c>
+      <c r="F5" s="6">
+        <v>90195.84779098173</v>
+      </c>
+      <c r="G5" s="5">
+        <v>115787.06884877548</v>
+      </c>
+      <c r="H5" s="6">
+        <v>81816.959960250082</v>
+      </c>
+      <c r="I5" s="6">
+        <v>96122.698024926489</v>
+      </c>
+      <c r="J5" s="6">
+        <v>86473.914951761821</v>
+      </c>
+      <c r="K5" s="6">
+        <v>84483.840834748029</v>
+      </c>
+      <c r="L5" s="6">
+        <v>82851.838847252686</v>
+      </c>
+      <c r="M5" s="6">
+        <v>93261.146950436814</v>
+      </c>
+      <c r="N5" s="6">
+        <v>89418.17564490081</v>
+      </c>
+      <c r="O5" s="5">
+        <v>116054.59953154548</v>
+      </c>
+      <c r="P5" s="5">
+        <v>147258.78853841178</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>119071.16597033791</v>
+      </c>
+      <c r="R5" s="5">
+        <v>147817.02185285313</v>
+      </c>
+      <c r="S5" s="5">
+        <v>156369.57753825633</v>
+      </c>
+      <c r="T5" s="5">
+        <v>125680.43775924247</v>
+      </c>
+      <c r="U5" s="5">
+        <v>117815.66764804721</v>
+      </c>
+      <c r="V5" s="5">
+        <v>128547.43980058083</v>
+      </c>
+      <c r="W5" s="6">
+        <v>80129.482009026528</v>
+      </c>
+      <c r="X5" s="5">
+        <v>166070.19796468035</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>94965.772017721814</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>139163.35220860777</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>119060.63326629186</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>133369.31171286848</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>148990.36508358456</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>123891.98461222096</v>
+      </c>
+      <c r="AE5" s="6">
+        <v>85090.041820214465</v>
+      </c>
+      <c r="AF5" s="6">
+        <v>89943.684319489868</v>
+      </c>
+      <c r="AG5" s="6">
+        <v>79591.869487805874</v>
+      </c>
+      <c r="AH5" s="6">
+        <v>83654.727340482772</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <v>3571125</v>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="5">
+        <v>109697.18181716904</v>
+      </c>
+      <c r="C6" s="5">
+        <v>117290.45590763757</v>
+      </c>
+      <c r="D6" s="5">
+        <v>110367.70248842314</v>
+      </c>
+      <c r="E6" s="5">
+        <v>126461.1919624787</v>
+      </c>
+      <c r="F6" s="6">
+        <v>86024.742551216768</v>
+      </c>
+      <c r="G6" s="5">
+        <v>135434.24858979453</v>
+      </c>
+      <c r="H6" s="6">
+        <v>84006.738517170059</v>
+      </c>
+      <c r="I6" s="6">
+        <v>81663.153901142374</v>
+      </c>
+      <c r="J6" s="6">
+        <v>82527.729166097954</v>
+      </c>
+      <c r="K6" s="6">
+        <v>88217.448360960567</v>
+      </c>
+      <c r="L6" s="6">
+        <v>79524.049772578364</v>
+      </c>
+      <c r="M6" s="6">
+        <v>86427.747783790779</v>
+      </c>
+      <c r="N6" s="6">
+        <v>79460.521854143037</v>
+      </c>
+      <c r="O6" s="5">
+        <v>139776.24244764881</v>
+      </c>
+      <c r="P6" s="5">
+        <v>146761.5777961803</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>118651.36452929402</v>
+      </c>
+      <c r="R6" s="5">
+        <v>111514.04449527827</v>
+      </c>
+      <c r="S6" s="5">
+        <v>115088.16801405192</v>
+      </c>
+      <c r="T6" s="5">
+        <v>132652.82950903682</v>
+      </c>
+      <c r="U6" s="5">
+        <v>117963.9566707639</v>
+      </c>
+      <c r="V6" s="5">
+        <v>118589.77596393439</v>
+      </c>
+      <c r="W6" s="6">
+        <v>89127.684317291525</v>
+      </c>
+      <c r="X6" s="5">
+        <v>150323.78094746498</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>83280.137950066186</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>100906.90415801728</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>148791.02036117599</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>121164.57534155009</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>137962.35986141182</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>148102.61913868846</v>
+      </c>
+      <c r="AE6" s="6">
+        <v>84822.67521957359</v>
+      </c>
+      <c r="AF6" s="6">
+        <v>78855.021381556478</v>
+      </c>
+      <c r="AG6" s="6">
+        <v>80488.880033814668</v>
+      </c>
+      <c r="AH6" s="6">
+        <v>79198.469190597389</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>3971625</v>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="5">
+        <v>138787.27617511785</v>
+      </c>
+      <c r="C7" s="5">
+        <v>159210.84122532111</v>
+      </c>
+      <c r="D7" s="5">
+        <v>138512.8230439426</v>
+      </c>
+      <c r="E7" s="5">
+        <v>131427.29361515059</v>
+      </c>
+      <c r="F7" s="6">
+        <v>96320.866386925263</v>
+      </c>
+      <c r="G7" s="5">
+        <v>117632.1582365355</v>
+      </c>
+      <c r="H7" s="6">
+        <v>86900.648387487512</v>
+      </c>
+      <c r="I7" s="6">
+        <v>89530.027917000902</v>
+      </c>
+      <c r="J7" s="6">
+        <v>85662.365414458312</v>
+      </c>
+      <c r="K7" s="6">
+        <v>89014.405309601018</v>
+      </c>
+      <c r="L7" s="6">
+        <v>98082.659120048804</v>
+      </c>
+      <c r="M7" s="6">
+        <v>97556.191677694034</v>
+      </c>
+      <c r="N7" s="6">
+        <v>99280.52043551892</v>
+      </c>
+      <c r="O7" s="5">
+        <v>125495.62699841228</v>
+      </c>
+      <c r="P7" s="5">
+        <v>151299.05325020925</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>134464.63935910768</v>
+      </c>
+      <c r="R7" s="5">
+        <v>138994.08240776398</v>
+      </c>
+      <c r="S7" s="5">
+        <v>155433.24513460262</v>
+      </c>
+      <c r="T7" s="5">
+        <v>134410.52184028437</v>
+      </c>
+      <c r="U7" s="5">
+        <v>149284.14205830646</v>
+      </c>
+      <c r="V7" s="5">
+        <v>110007.38638804002</v>
+      </c>
+      <c r="W7" s="6">
+        <v>96795.081442679293</v>
+      </c>
+      <c r="X7" s="5">
+        <v>156452.78053386279</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>82523.278642065867</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>154440.7684947541</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>124131.09241665364</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>159671.80651958377</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>144516.00209626884</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>153328.46020608259</v>
+      </c>
+      <c r="AE7" s="6">
+        <v>88396.249717173225</v>
+      </c>
+      <c r="AF7" s="6">
+        <v>96705.365080779884</v>
+      </c>
+      <c r="AG7" s="6">
+        <v>90961.54613104419</v>
+      </c>
+      <c r="AH7" s="6">
+        <v>96395.794337522573</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
-        <v>4338750</v>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="5">
+        <v>134967.53337958298</v>
+      </c>
+      <c r="C8" s="5">
+        <v>147380.93527904295</v>
+      </c>
+      <c r="D8" s="5">
+        <v>150516.78837723081</v>
+      </c>
+      <c r="E8" s="5">
+        <v>189697.79071946428</v>
+      </c>
+      <c r="F8" s="6">
+        <v>110588.17292990632</v>
+      </c>
+      <c r="G8" s="5">
+        <v>178561.61190609873</v>
+      </c>
+      <c r="H8" s="6">
+        <v>94569.686097108875</v>
+      </c>
+      <c r="I8" s="6">
+        <v>92963.471596919626</v>
+      </c>
+      <c r="J8" s="6">
+        <v>103814.04957639014</v>
+      </c>
+      <c r="K8" s="6">
+        <v>106409.17237189185</v>
+      </c>
+      <c r="L8" s="6">
+        <v>108583.95837657285</v>
+      </c>
+      <c r="M8" s="6">
+        <v>104313.58025533648</v>
+      </c>
+      <c r="N8" s="6">
+        <v>94362.563620472574</v>
+      </c>
+      <c r="O8" s="5">
+        <v>135224.43411432672</v>
+      </c>
+      <c r="P8" s="5">
+        <v>176700.90172611264</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>133683.02970586426</v>
+      </c>
+      <c r="R8" s="5">
+        <v>164714.97432859469</v>
+      </c>
+      <c r="S8" s="5">
+        <v>145699.11953782581</v>
+      </c>
+      <c r="T8" s="5">
+        <v>165185.09227233627</v>
+      </c>
+      <c r="U8" s="5">
+        <v>133050.65866649503</v>
+      </c>
+      <c r="V8" s="5">
+        <v>136332.12351716921</v>
+      </c>
+      <c r="W8" s="6">
+        <v>112170.02007990307</v>
+      </c>
+      <c r="X8" s="5">
+        <v>140717.11743490052</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>93476.201257220237</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>190943.81128716879</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>172114.13152279315</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>138231.31680316952</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>139898.57136913805</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>151380.05805268549</v>
+      </c>
+      <c r="AE8" s="6">
+        <v>93557.425757861914</v>
+      </c>
+      <c r="AF8" s="6">
+        <v>98622.788679128731</v>
+      </c>
+      <c r="AG8" s="6">
+        <v>93321.87470600105</v>
+      </c>
+      <c r="AH8" s="6">
+        <v>106997.03469528603</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
-        <v>3971625</v>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="5">
+        <v>17855.290973494939</v>
+      </c>
+      <c r="C9" s="5">
+        <v>22676.750959783953</v>
+      </c>
+      <c r="D9" s="5">
+        <v>21869.953547248617</v>
+      </c>
+      <c r="E9" s="5">
+        <v>15236.151735229443</v>
+      </c>
+      <c r="F9" s="6">
+        <v>91097.30414016475</v>
+      </c>
+      <c r="G9" s="5">
+        <v>15329.687629530361</v>
+      </c>
+      <c r="H9" s="6">
+        <v>96794.365949257146</v>
+      </c>
+      <c r="I9" s="6">
+        <v>99850.955535475368</v>
+      </c>
+      <c r="J9" s="6">
+        <v>90341.003238904392</v>
+      </c>
+      <c r="K9" s="6">
+        <v>94296.649318187134</v>
+      </c>
+      <c r="L9" s="6">
+        <v>88132.847595465515</v>
+      </c>
+      <c r="M9" s="6">
+        <v>99825.644260332789</v>
+      </c>
+      <c r="N9" s="6">
+        <v>95461.980425751623</v>
+      </c>
+      <c r="O9" s="5">
+        <v>19173.650551130857</v>
+      </c>
+      <c r="P9" s="5">
+        <v>19370.116188514708</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>16627.246542006105</v>
+      </c>
+      <c r="R9" s="5">
+        <v>19952.266417320148</v>
+      </c>
+      <c r="S9" s="5">
+        <v>15564.936442599963</v>
+      </c>
+      <c r="T9" s="5">
+        <v>21075.099742450413</v>
+      </c>
+      <c r="U9" s="5">
+        <v>20609.970029900931</v>
+      </c>
+      <c r="V9" s="5">
+        <v>20513.615980965409</v>
+      </c>
+      <c r="W9" s="6">
+        <v>88199.669361841938</v>
+      </c>
+      <c r="X9" s="5">
+        <v>20822.136814534726</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>88718.044276762026</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>17042.723053850648</v>
+      </c>
+      <c r="AA9" s="5">
+        <v>20676.397960573751</v>
+      </c>
+      <c r="AB9" s="5">
+        <v>17513.757471348825</v>
+      </c>
+      <c r="AC9" s="5">
+        <v>18238.82839948063</v>
+      </c>
+      <c r="AD9" s="5">
+        <v>21869.953547248617</v>
+      </c>
+      <c r="AE9" s="6">
+        <v>86855.134426267963</v>
+      </c>
+      <c r="AF9" s="6">
+        <v>101500.23822376602</v>
+      </c>
+      <c r="AG9" s="6">
+        <v>85323.296054638893</v>
+      </c>
+      <c r="AH9" s="6">
+        <v>87727.867193184196</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>3571125</v>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="5">
+        <v>140840.11699089719</v>
+      </c>
+      <c r="C10" s="5">
+        <v>133451.58767875624</v>
+      </c>
+      <c r="D10" s="5">
+        <v>116531.09554398805</v>
+      </c>
+      <c r="E10" s="5">
+        <v>128070.92253192465</v>
+      </c>
+      <c r="F10" s="6">
+        <v>91541.008912183272</v>
+      </c>
+      <c r="G10" s="5">
+        <v>112789.58702520441</v>
+      </c>
+      <c r="H10" s="6">
+        <v>88193.103587231744</v>
+      </c>
+      <c r="I10" s="6">
+        <v>78409.556158713793</v>
+      </c>
+      <c r="J10" s="6">
+        <v>81137.292274374602</v>
+      </c>
+      <c r="K10" s="6">
+        <v>78315.774473406418</v>
+      </c>
+      <c r="L10" s="6">
+        <v>88072.094961028692</v>
+      </c>
+      <c r="M10" s="6">
+        <v>81983.344252577706</v>
+      </c>
+      <c r="N10" s="6">
+        <v>90375.292479760392</v>
+      </c>
+      <c r="O10" s="5">
+        <v>145447.42064592423</v>
+      </c>
+      <c r="P10" s="5">
+        <v>110454.0969423842</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>132447.14207585467</v>
+      </c>
+      <c r="R10" s="5">
+        <v>111273.67525640817</v>
+      </c>
+      <c r="S10" s="5">
+        <v>138168.78466661606</v>
+      </c>
+      <c r="T10" s="5">
+        <v>127294.47991863877</v>
+      </c>
+      <c r="U10" s="5">
+        <v>154061.20926712611</v>
+      </c>
+      <c r="V10" s="5">
+        <v>114691.66601965604</v>
+      </c>
+      <c r="W10" s="6">
+        <v>87426.715621278985</v>
+      </c>
+      <c r="X10" s="5">
+        <v>124288.33239339042</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>77794.428975514878</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>109166.18816320367</v>
+      </c>
+      <c r="AA10" s="5">
+        <v>152885.24790176586</v>
+      </c>
+      <c r="AB10" s="5">
+        <v>117886.78899575703</v>
+      </c>
+      <c r="AC10" s="5">
+        <v>116131.5767919137</v>
+      </c>
+      <c r="AD10" s="5">
+        <v>121620.08119059056</v>
+      </c>
+      <c r="AE10" s="6">
+        <v>77592.7479318431</v>
+      </c>
+      <c r="AF10" s="6">
+        <v>76720.477417962669</v>
+      </c>
+      <c r="AG10" s="6">
+        <v>89064.365695893837</v>
+      </c>
+      <c r="AH10" s="6">
+        <v>76998.797258229723</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>3571125</v>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="5">
+        <v>129165.12296090997</v>
+      </c>
+      <c r="C11" s="5">
+        <v>127893.15092767292</v>
+      </c>
+      <c r="D11" s="5">
+        <v>139879.57053609088</v>
+      </c>
+      <c r="E11" s="5">
+        <v>133178.61740581488</v>
+      </c>
+      <c r="F11" s="6">
+        <v>76659.780437295049</v>
+      </c>
+      <c r="G11" s="5">
+        <v>119332.40561278755</v>
+      </c>
+      <c r="H11" s="6">
+        <v>89578.737429466404</v>
+      </c>
+      <c r="I11" s="6">
+        <v>84720.690326899232</v>
+      </c>
+      <c r="J11" s="6">
+        <v>80024.916196442849</v>
+      </c>
+      <c r="K11" s="6">
+        <v>81864.686017749074</v>
+      </c>
+      <c r="L11" s="6">
+        <v>79103.002873638339</v>
+      </c>
+      <c r="M11" s="6">
+        <v>81870.771254203239</v>
+      </c>
+      <c r="N11" s="6">
+        <v>80246.013120943811</v>
+      </c>
+      <c r="O11" s="5">
+        <v>133507.9146478044</v>
+      </c>
+      <c r="P11" s="5">
+        <v>127508.80698254486</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>144127.01346933458</v>
+      </c>
+      <c r="R11" s="5">
+        <v>109115.34431953709</v>
+      </c>
+      <c r="S11" s="5">
+        <v>100755.12628037072</v>
+      </c>
+      <c r="T11" s="5">
+        <v>133012.4943195575</v>
+      </c>
+      <c r="U11" s="5">
+        <v>114147.20277250507</v>
+      </c>
+      <c r="V11" s="5">
+        <v>137331.6945622497</v>
+      </c>
+      <c r="W11" s="6">
+        <v>90750.145446891271</v>
+      </c>
+      <c r="X11" s="5">
+        <v>143624.71230319538</v>
+      </c>
+      <c r="Y11" s="6">
+        <v>87374.867626986554</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>135431.60032712817</v>
+      </c>
+      <c r="AA11" s="5">
+        <v>120437.27158292547</v>
+      </c>
+      <c r="AB11" s="5">
+        <v>123655.53776284677</v>
+      </c>
+      <c r="AC11" s="5">
+        <v>117971.96566379211</v>
+      </c>
+      <c r="AD11" s="5">
+        <v>117424.44756293195</v>
+      </c>
+      <c r="AE11" s="6">
+        <v>80310.922309788133</v>
+      </c>
+      <c r="AF11" s="6">
+        <v>79642.56050590676</v>
+      </c>
+      <c r="AG11" s="6">
+        <v>88505.707401383712</v>
+      </c>
+      <c r="AH11" s="6">
+        <v>82972.199052405311</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
-        <v>3738000.0000000005</v>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="5">
+        <v>132344.77036818527</v>
+      </c>
+      <c r="C12" s="5">
+        <v>150062.94363834144</v>
+      </c>
+      <c r="D12" s="5">
+        <v>141614.26279983041</v>
+      </c>
+      <c r="E12" s="5">
+        <v>110119.87684138722</v>
+      </c>
+      <c r="F12" s="6">
+        <v>79809.354986465391</v>
+      </c>
+      <c r="G12" s="5">
+        <v>130160.06932281202</v>
+      </c>
+      <c r="H12" s="6">
+        <v>90307.670811099495</v>
+      </c>
+      <c r="I12" s="6">
+        <v>92904.808126373478</v>
+      </c>
+      <c r="J12" s="6">
+        <v>84410.487360830215</v>
+      </c>
+      <c r="K12" s="6">
+        <v>94789.973327689077</v>
+      </c>
+      <c r="L12" s="6">
+        <v>83020.782244475777</v>
+      </c>
+      <c r="M12" s="6">
+        <v>86913.97063565423</v>
+      </c>
+      <c r="N12" s="6">
+        <v>93501.978513328693</v>
+      </c>
+      <c r="O12" s="5">
+        <v>134555.28309887723</v>
+      </c>
+      <c r="P12" s="5">
+        <v>109764.70805140214</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>155812.75465993106</v>
+      </c>
+      <c r="R12" s="5">
+        <v>118653.22000774353</v>
+      </c>
+      <c r="S12" s="5">
+        <v>134461.3285643172</v>
+      </c>
+      <c r="T12" s="5">
+        <v>121691.77160345878</v>
+      </c>
+      <c r="U12" s="5">
+        <v>134874.31552941611</v>
+      </c>
+      <c r="V12" s="5">
+        <v>122000.47935987024</v>
+      </c>
+      <c r="W12" s="6">
+        <v>81348.10094138539</v>
+      </c>
+      <c r="X12" s="5">
+        <v>123488.26490163906</v>
+      </c>
+      <c r="Y12" s="6">
+        <v>90225.094130272642</v>
+      </c>
+      <c r="Z12" s="5">
+        <v>119211.78487803981</v>
+      </c>
+      <c r="AA12" s="5">
+        <v>142429.91205590076</v>
+      </c>
+      <c r="AB12" s="5">
+        <v>130595.77057099137</v>
+      </c>
+      <c r="AC12" s="5">
+        <v>143929.05473920982</v>
+      </c>
+      <c r="AD12" s="5">
+        <v>164229.42900864693</v>
+      </c>
+      <c r="AE12" s="6">
+        <v>82197.029501593206</v>
+      </c>
+      <c r="AF12" s="6">
+        <v>86930.083158742404</v>
+      </c>
+      <c r="AG12" s="6">
+        <v>88631.968409930094</v>
+      </c>
+      <c r="AH12" s="6">
+        <v>83008.697852159647</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2">
-        <v>3571125</v>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="5">
+        <v>117787.58840437788</v>
+      </c>
+      <c r="C13" s="5">
+        <v>140709.23581087211</v>
+      </c>
+      <c r="D13" s="5">
+        <v>134708.55914689388</v>
+      </c>
+      <c r="E13" s="5">
+        <v>115695.28000467265</v>
+      </c>
+      <c r="F13" s="6">
+        <v>78017.882176994593</v>
+      </c>
+      <c r="G13" s="5">
+        <v>120579.99236966606</v>
+      </c>
+      <c r="H13" s="6">
+        <v>80005.30333571753</v>
+      </c>
+      <c r="I13" s="6">
+        <v>85374.36699395279</v>
+      </c>
+      <c r="J13" s="6">
+        <v>82716.065088757387</v>
+      </c>
+      <c r="K13" s="6">
+        <v>79669.358540867412</v>
+      </c>
+      <c r="L13" s="6">
+        <v>76643.837700760763</v>
+      </c>
+      <c r="M13" s="6">
+        <v>82023.998634501579</v>
+      </c>
+      <c r="N13" s="6">
+        <v>86171.353143897519</v>
+      </c>
+      <c r="O13" s="5">
+        <v>106925.1369794068</v>
+      </c>
+      <c r="P13" s="5">
+        <v>113784.47786271115</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>151175.76424505052</v>
+      </c>
+      <c r="R13" s="5">
+        <v>110308.93221305781</v>
+      </c>
+      <c r="S13" s="5">
+        <v>116891.02727409427</v>
+      </c>
+      <c r="T13" s="5">
+        <v>119388.23424876628</v>
+      </c>
+      <c r="U13" s="5">
+        <v>129927.5646434683</v>
+      </c>
+      <c r="V13" s="5">
+        <v>127467.25729262331</v>
+      </c>
+      <c r="W13" s="6">
+        <v>89643.791533909854</v>
+      </c>
+      <c r="X13" s="5">
+        <v>109477.19474625411</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>83047.974510696382</v>
+      </c>
+      <c r="Z13" s="5">
+        <v>149884.27741110473</v>
+      </c>
+      <c r="AA13" s="5">
+        <v>127393.45804496926</v>
+      </c>
+      <c r="AB13" s="5">
+        <v>151186.73440348558</v>
+      </c>
+      <c r="AC13" s="5">
+        <v>114403.79317072686</v>
+      </c>
+      <c r="AD13" s="5">
+        <v>149805.49172779839</v>
+      </c>
+      <c r="AE13" s="6">
+        <v>88103.287925092634</v>
+      </c>
+      <c r="AF13" s="6">
+        <v>77221.904870277634</v>
+      </c>
+      <c r="AG13" s="6">
+        <v>83169.035698029766</v>
+      </c>
+      <c r="AH13" s="6">
+        <v>91816.839846543982</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2">
-        <v>3738000.0000000005</v>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="5">
+        <v>134044.98173395864</v>
+      </c>
+      <c r="C14" s="5">
+        <v>113151.60517659812</v>
+      </c>
+      <c r="D14" s="5">
+        <v>155459.72075801602</v>
+      </c>
+      <c r="E14" s="5">
+        <v>120356.97402800334</v>
+      </c>
+      <c r="F14" s="6">
+        <v>86173.304129041688</v>
+      </c>
+      <c r="G14" s="5">
+        <v>150211.20567740611</v>
+      </c>
+      <c r="H14" s="6">
+        <v>92581.011782140296</v>
+      </c>
+      <c r="I14" s="6">
+        <v>82948.127641210609</v>
+      </c>
+      <c r="J14" s="6">
+        <v>94591.292452753361</v>
+      </c>
+      <c r="K14" s="6">
+        <v>80988.426306661335</v>
+      </c>
+      <c r="L14" s="6">
+        <v>89200.130279367804</v>
+      </c>
+      <c r="M14" s="6">
+        <v>85247.999804580919</v>
+      </c>
+      <c r="N14" s="6">
+        <v>87173.981581754357</v>
+      </c>
+      <c r="O14" s="5">
+        <v>142982.90883989376</v>
+      </c>
+      <c r="P14" s="5">
+        <v>128170.43294572801</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>130140.24601301865</v>
+      </c>
+      <c r="R14" s="5">
+        <v>123390.44627687246</v>
+      </c>
+      <c r="S14" s="5">
+        <v>115287.89536040572</v>
+      </c>
+      <c r="T14" s="5">
+        <v>148915.27602787281</v>
+      </c>
+      <c r="U14" s="5">
+        <v>155019.10467717471</v>
+      </c>
+      <c r="V14" s="5">
+        <v>109504.06164764245</v>
+      </c>
+      <c r="W14" s="6">
+        <v>91324.462394046204</v>
+      </c>
+      <c r="X14" s="5">
+        <v>109604.74541272158</v>
+      </c>
+      <c r="Y14" s="6">
+        <v>89302.280703182871</v>
+      </c>
+      <c r="Z14" s="5">
+        <v>144186.12967603738</v>
+      </c>
+      <c r="AA14" s="5">
+        <v>148484.62863664326</v>
+      </c>
+      <c r="AB14" s="5">
+        <v>133287.36132346225</v>
+      </c>
+      <c r="AC14" s="5">
+        <v>118695.19346971715</v>
+      </c>
+      <c r="AD14" s="5">
+        <v>139107.082318828</v>
+      </c>
+      <c r="AE14" s="6">
+        <v>88408.712432722896</v>
+      </c>
+      <c r="AF14" s="6">
+        <v>81181.817885728698</v>
+      </c>
+      <c r="AG14" s="6">
+        <v>81927.615154747444</v>
+      </c>
+      <c r="AH14" s="6">
+        <v>86950.837452061241</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2">
-        <v>3971625</v>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="5">
+        <v>145537.81131367068</v>
+      </c>
+      <c r="C15" s="5">
+        <v>167498.33131700807</v>
+      </c>
+      <c r="D15" s="5">
+        <v>129013.56717491969</v>
+      </c>
+      <c r="E15" s="5">
+        <v>128582.73408493596</v>
+      </c>
+      <c r="F15" s="6">
+        <v>84668.218273221471</v>
+      </c>
+      <c r="G15" s="5">
+        <v>137287.15818071837</v>
+      </c>
+      <c r="H15" s="6">
+        <v>98522.045653825902</v>
+      </c>
+      <c r="I15" s="6">
+        <v>87141.431577716707</v>
+      </c>
+      <c r="J15" s="6">
+        <v>91244.625591862961</v>
+      </c>
+      <c r="K15" s="6">
+        <v>93209.478576021487</v>
+      </c>
+      <c r="L15" s="6">
+        <v>89580.350733617801</v>
+      </c>
+      <c r="M15" s="6">
+        <v>91153.846963231408</v>
+      </c>
+      <c r="N15" s="6">
+        <v>101555.06050154906</v>
+      </c>
+      <c r="O15" s="5">
+        <v>138176.74872762922</v>
+      </c>
+      <c r="P15" s="5">
+        <v>156331.57643611031</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>128210.74162529723</v>
+      </c>
+      <c r="R15" s="5">
+        <v>137196.40398815233</v>
+      </c>
+      <c r="S15" s="5">
+        <v>130828.65102624004</v>
+      </c>
+      <c r="T15" s="5">
+        <v>158071.86287597514</v>
+      </c>
+      <c r="U15" s="5">
+        <v>152551.81391055859</v>
+      </c>
+      <c r="V15" s="5">
+        <v>162394.15595928414</v>
+      </c>
+      <c r="W15" s="6">
+        <v>99801.015666101564</v>
+      </c>
+      <c r="X15" s="5">
+        <v>155742.17283384089</v>
+      </c>
+      <c r="Y15" s="6">
+        <v>92255.29432396093</v>
+      </c>
+      <c r="Z15" s="5">
+        <v>113563.41386466981</v>
+      </c>
+      <c r="AA15" s="5">
+        <v>134978.41141379168</v>
+      </c>
+      <c r="AB15" s="5">
+        <v>152930.78746193319</v>
+      </c>
+      <c r="AC15" s="5">
+        <v>126641.99058237036</v>
+      </c>
+      <c r="AD15" s="5">
+        <v>121961.66722289434</v>
+      </c>
+      <c r="AE15" s="6">
+        <v>91795.349272227715</v>
+      </c>
+      <c r="AF15" s="6">
+        <v>89503.693224995601</v>
+      </c>
+      <c r="AG15" s="6">
+        <v>96930.393698485976</v>
+      </c>
+      <c r="AH15" s="6">
+        <v>86764.195943181141</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2">
-        <v>4338750</v>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="5">
+        <v>164727.28521982886</v>
+      </c>
+      <c r="C16" s="5">
+        <v>125232.71641180232</v>
+      </c>
+      <c r="D16" s="5">
+        <v>158623.7391636954</v>
+      </c>
+      <c r="E16" s="5">
+        <v>153235.09331057966</v>
+      </c>
+      <c r="F16" s="6">
+        <v>94537.66964912937</v>
+      </c>
+      <c r="G16" s="5">
+        <v>145351.63156430633</v>
+      </c>
+      <c r="H16" s="6">
+        <v>100092.84869598919</v>
+      </c>
+      <c r="I16" s="6">
+        <v>105197.63586794949</v>
+      </c>
+      <c r="J16" s="6">
+        <v>99388.203343323796</v>
+      </c>
+      <c r="K16" s="6">
+        <v>104856.20976923533</v>
+      </c>
+      <c r="L16" s="6">
+        <v>96321.595070678406</v>
+      </c>
+      <c r="M16" s="6">
+        <v>103312.00905529408</v>
+      </c>
+      <c r="N16" s="6">
+        <v>102731.89601826912</v>
+      </c>
+      <c r="O16" s="5">
+        <v>173895.80697535703</v>
+      </c>
+      <c r="P16" s="5">
+        <v>176467.88294517453</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>143864.13059468946</v>
+      </c>
+      <c r="R16" s="5">
+        <v>125991.62551924656</v>
+      </c>
+      <c r="S16" s="5">
+        <v>150930.98266993708</v>
+      </c>
+      <c r="T16" s="5">
+        <v>169322.79281761305</v>
+      </c>
+      <c r="U16" s="5">
+        <v>168614.73844417281</v>
+      </c>
+      <c r="V16" s="5">
+        <v>156586.61587657378</v>
+      </c>
+      <c r="W16" s="6">
+        <v>98837.147846614913</v>
+      </c>
+      <c r="X16" s="5">
+        <v>131563.15281964591</v>
+      </c>
+      <c r="Y16" s="6">
+        <v>96142.060982296796</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>153471.76341882904</v>
+      </c>
+      <c r="AA16" s="5">
+        <v>175338.32106489345</v>
+      </c>
+      <c r="AB16" s="5">
+        <v>127003.83032105687</v>
+      </c>
+      <c r="AC16" s="5">
+        <v>149786.75115484715</v>
+      </c>
+      <c r="AD16" s="5">
+        <v>174991.13970775079</v>
+      </c>
+      <c r="AE16" s="6">
+        <v>98785.259381764743</v>
+      </c>
+      <c r="AF16" s="6">
+        <v>96174.231830503893</v>
+      </c>
+      <c r="AG16" s="6">
+        <v>110151.94649184427</v>
+      </c>
+      <c r="AH16" s="6">
+        <v>107221.28599710634</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2">
-        <v>4705875</v>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="5">
+        <v>185049.92818028954</v>
+      </c>
+      <c r="C17" s="5">
+        <v>170350.48999181305</v>
+      </c>
+      <c r="D17" s="5">
+        <v>143211.94903496859</v>
+      </c>
+      <c r="E17" s="5">
+        <v>154305.21906237284</v>
+      </c>
+      <c r="F17" s="6">
+        <v>100315.94478642965</v>
+      </c>
+      <c r="G17" s="5">
+        <v>198718.73636528535</v>
+      </c>
+      <c r="H17" s="6">
+        <v>107173.16589802458</v>
+      </c>
+      <c r="I17" s="6">
+        <v>101202.18345473256</v>
+      </c>
+      <c r="J17" s="6">
+        <v>119915.37597482282</v>
+      </c>
+      <c r="K17" s="6">
+        <v>111150.11133763505</v>
+      </c>
+      <c r="L17" s="6">
+        <v>116472.60178734014</v>
+      </c>
+      <c r="M17" s="6">
+        <v>101413.62624203315</v>
+      </c>
+      <c r="N17" s="6">
+        <v>105615.16641265189</v>
+      </c>
+      <c r="O17" s="5">
+        <v>178943.91199266605</v>
+      </c>
+      <c r="P17" s="5">
+        <v>168068.38069839153</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>176933.45769010164</v>
+      </c>
+      <c r="R17" s="5">
+        <v>150153.66721736616</v>
+      </c>
+      <c r="S17" s="5">
+        <v>153419.74821431196</v>
+      </c>
+      <c r="T17" s="5">
+        <v>191808.12371619203</v>
+      </c>
+      <c r="U17" s="5">
+        <v>196677.17652941667</v>
+      </c>
+      <c r="V17" s="5">
+        <v>140973.38748817303</v>
+      </c>
+      <c r="W17" s="6">
+        <v>108057.38119037249</v>
+      </c>
+      <c r="X17" s="5">
+        <v>179973.50514503659</v>
+      </c>
+      <c r="Y17" s="6">
+        <v>121290.25993626534</v>
+      </c>
+      <c r="Z17" s="5">
+        <v>154286.55574239031</v>
+      </c>
+      <c r="AA17" s="5">
+        <v>143093.74800841245</v>
+      </c>
+      <c r="AB17" s="5">
+        <v>166938.21298833727</v>
+      </c>
+      <c r="AC17" s="5">
+        <v>178761.42619728117</v>
+      </c>
+      <c r="AD17" s="5">
+        <v>140832.37573719377</v>
+      </c>
+      <c r="AE17" s="6">
+        <v>107123.59318712636</v>
+      </c>
+      <c r="AF17" s="6">
+        <v>120997.88211076359</v>
+      </c>
+      <c r="AG17" s="6">
+        <v>110681.69980404574</v>
+      </c>
+      <c r="AH17" s="6">
+        <v>101966.0078777562</v>
       </c>
     </row>
   </sheetData>
